--- a/casefile_test_record/test_record.xlsx
+++ b/casefile_test_record/test_record.xlsx
@@ -3,11 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Xinliang\morenet\rapidPF\casefile_test_record\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="DSO-118" sheetId="1" r:id="rId1"/>
+    <sheet name="DSO-300" sheetId="2" r:id="rId2"/>
+    <sheet name="DSO-1354" sheetId="3" r:id="rId3"/>
+    <sheet name="4662 case" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,9 +26,56 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="14">
+  <si>
+    <t>Bus num</t>
+  </si>
+  <si>
+    <t>of DSO</t>
+  </si>
+  <si>
+    <t>Trafos num</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deviation between initial point and optimum </t>
+  </si>
+  <si>
+    <t>Iterations</t>
+  </si>
+  <si>
+    <t>Computing time</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>GSK</t>
+  </si>
+  <si>
+    <t>Active power demand [MW]</t>
+  </si>
+  <si>
+    <t>Shifted power [MW]</t>
+  </si>
+  <si>
+    <t>Shifted power [%]</t>
+  </si>
+  <si>
+    <t>NaN</t>
+  </si>
+  <si>
+    <t>Total Bus Num</t>
+  </si>
+  <si>
+    <t>Generation Shift Key</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,19 +83,128 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7EFED"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -49,8 +213,101 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -114,7 +371,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +406,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -331,12 +588,2715 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>118</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4242</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1.57711</v>
+      </c>
+      <c r="F3" s="6">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="G3" s="5">
+        <v>10.509</v>
+      </c>
+      <c r="H3" s="5">
+        <v>5</v>
+      </c>
+      <c r="I3" s="5">
+        <v>4.2</v>
+      </c>
+      <c r="J3" s="7">
+        <v>8.06E-13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="D4" s="5">
+        <v>4242</v>
+      </c>
+      <c r="E4" s="5">
+        <v>457.32</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.10780000000000001</v>
+      </c>
+      <c r="G4" s="5">
+        <v>10.683</v>
+      </c>
+      <c r="H4" s="5">
+        <v>5</v>
+      </c>
+      <c r="I4" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="J4" s="7">
+        <v>8.2200000000000003E-13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4242</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1148.0999999999999</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.2707</v>
+      </c>
+      <c r="G5" s="5">
+        <v>11.061999999999999</v>
+      </c>
+      <c r="H5" s="5">
+        <v>6</v>
+      </c>
+      <c r="I5" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="J5" s="7">
+        <v>4.7900000000000002E-9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="D6" s="5">
+        <v>4242</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="16"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13"/>
+      <c r="B7" s="8">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>4242</v>
+      </c>
+      <c r="E7" s="5">
+        <v>407.93</v>
+      </c>
+      <c r="F7" s="6">
+        <v>9.6199999999999994E-2</v>
+      </c>
+      <c r="G7" s="5">
+        <v>10.863</v>
+      </c>
+      <c r="H7" s="5">
+        <v>5</v>
+      </c>
+      <c r="I7" s="5">
+        <v>3.3</v>
+      </c>
+      <c r="J7" s="7">
+        <v>7.4700000000000005E-13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="D8" s="5">
+        <v>4242</v>
+      </c>
+      <c r="E8" s="5">
+        <v>795.82</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.18759999999999999</v>
+      </c>
+      <c r="G8" s="5">
+        <v>10.914</v>
+      </c>
+      <c r="H8" s="5">
+        <v>5</v>
+      </c>
+      <c r="I8" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="J8" s="7">
+        <v>2.3900000000000001E-12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="D9" s="5">
+        <v>4242</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1196.5</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.28210000000000002</v>
+      </c>
+      <c r="G9" s="5">
+        <v>11.002000000000001</v>
+      </c>
+      <c r="H9" s="5">
+        <v>5</v>
+      </c>
+      <c r="I9" s="5">
+        <v>4.3</v>
+      </c>
+      <c r="J9" s="7">
+        <v>1.5799999999999999E-12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="D10" s="5">
+        <v>4242</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1610.9</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.37980000000000003</v>
+      </c>
+      <c r="G10" s="5">
+        <v>11.127000000000001</v>
+      </c>
+      <c r="H10" s="5">
+        <v>6</v>
+      </c>
+      <c r="I10" s="5">
+        <v>4.3</v>
+      </c>
+      <c r="J10" s="7">
+        <v>3.4099999999999998E-12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="D11" s="5">
+        <v>4242</v>
+      </c>
+      <c r="E11" s="5">
+        <v>2040.2</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="G11" s="5">
+        <v>11.292</v>
+      </c>
+      <c r="H11" s="5">
+        <v>6</v>
+      </c>
+      <c r="I11" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="J11" s="7">
+        <v>1.28E-11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="5">
+        <v>4242</v>
+      </c>
+      <c r="E12" s="5">
+        <v>2486.1</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0.58609999999999995</v>
+      </c>
+      <c r="G12" s="5">
+        <v>11.500999999999999</v>
+      </c>
+      <c r="H12" s="5">
+        <v>6</v>
+      </c>
+      <c r="I12" s="5">
+        <v>4.2</v>
+      </c>
+      <c r="J12" s="7">
+        <v>2.26E-10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D13" s="5">
+        <v>4242</v>
+      </c>
+      <c r="E13" s="5">
+        <v>2951.1</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0.69569999999999999</v>
+      </c>
+      <c r="G13" s="5">
+        <v>11.763999999999999</v>
+      </c>
+      <c r="H13" s="5">
+        <v>6</v>
+      </c>
+      <c r="I13" s="5">
+        <v>3.8</v>
+      </c>
+      <c r="J13" s="7">
+        <v>1.4500000000000001E-8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D14" s="5">
+        <v>4242</v>
+      </c>
+      <c r="E14" s="5">
+        <v>3439.4</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0.81079999999999997</v>
+      </c>
+      <c r="G14" s="5">
+        <v>14.269</v>
+      </c>
+      <c r="H14" s="5">
+        <v>6</v>
+      </c>
+      <c r="I14" s="5">
+        <v>4.3</v>
+      </c>
+      <c r="J14" s="7">
+        <v>1.4899999999999999E-12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="D15" s="5">
+        <v>4242</v>
+      </c>
+      <c r="E15" s="5">
+        <v>3958</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0.93310000000000004</v>
+      </c>
+      <c r="G15" s="5">
+        <v>19.506</v>
+      </c>
+      <c r="H15" s="5">
+        <v>7</v>
+      </c>
+      <c r="I15" s="5">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J15" s="7">
+        <v>4.26E-13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="13"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="D16" s="5">
+        <v>4242</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13"/>
+      <c r="B17" s="8">
+        <v>5</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5">
+        <v>4242</v>
+      </c>
+      <c r="E17" s="5">
+        <v>887.4</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0.2092</v>
+      </c>
+      <c r="G17" s="5">
+        <v>24.794</v>
+      </c>
+      <c r="H17" s="5">
+        <v>8</v>
+      </c>
+      <c r="I17" s="5">
+        <v>5.9</v>
+      </c>
+      <c r="J17" s="7">
+        <v>5.9099999999999995E-11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="D18" s="5">
+        <v>4242</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1227.3</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0.2893</v>
+      </c>
+      <c r="G18" s="5">
+        <v>19.486999999999998</v>
+      </c>
+      <c r="H18" s="5">
+        <v>7</v>
+      </c>
+      <c r="I18" s="5">
+        <v>4.2</v>
+      </c>
+      <c r="J18" s="7">
+        <v>8.3499999999999998E-13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="D19" s="5">
+        <v>4242</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1573</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0.37080000000000002</v>
+      </c>
+      <c r="G19" s="5">
+        <v>16.617000000000001</v>
+      </c>
+      <c r="H19" s="5">
+        <v>6</v>
+      </c>
+      <c r="I19" s="5">
+        <v>4.2</v>
+      </c>
+      <c r="J19" s="7">
+        <v>1.05E-8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="D20" s="5">
+        <v>4242</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1924.5</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0.45369999999999999</v>
+      </c>
+      <c r="G20" s="5">
+        <v>14.564</v>
+      </c>
+      <c r="H20" s="5">
+        <v>6</v>
+      </c>
+      <c r="I20" s="5">
+        <v>3.7</v>
+      </c>
+      <c r="J20" s="7">
+        <v>1.2799999999999999E-9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="D21" s="5">
+        <v>4242</v>
+      </c>
+      <c r="E21" s="5">
+        <v>2282.1</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="G21" s="5">
+        <v>13.007999999999999</v>
+      </c>
+      <c r="H21" s="5">
+        <v>6</v>
+      </c>
+      <c r="I21" s="5">
+        <v>3.8</v>
+      </c>
+      <c r="J21" s="7">
+        <v>4.8199999999999999E-10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="5">
+        <v>4242</v>
+      </c>
+      <c r="E22" s="5">
+        <v>2645.9</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0.62370000000000003</v>
+      </c>
+      <c r="G22" s="5">
+        <v>11.814</v>
+      </c>
+      <c r="H22" s="5">
+        <v>6</v>
+      </c>
+      <c r="I22" s="5">
+        <v>4.2</v>
+      </c>
+      <c r="J22" s="7">
+        <v>3.7000000000000001E-10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D23" s="5">
+        <v>4242</v>
+      </c>
+      <c r="E23" s="5">
+        <v>3016.3</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0.71109999999999995</v>
+      </c>
+      <c r="G23" s="5">
+        <v>11.816000000000001</v>
+      </c>
+      <c r="H23" s="5">
+        <v>6</v>
+      </c>
+      <c r="I23" s="5">
+        <v>3.9</v>
+      </c>
+      <c r="J23" s="7">
+        <v>4.7500000000000001E-10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D24" s="5">
+        <v>4242</v>
+      </c>
+      <c r="E24" s="5">
+        <v>3393.5</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="G24" s="5">
+        <v>11.978</v>
+      </c>
+      <c r="H24" s="5">
+        <v>6</v>
+      </c>
+      <c r="I24" s="5">
+        <v>3.4</v>
+      </c>
+      <c r="J24" s="7">
+        <v>9.3899999999999996E-10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="D25" s="5">
+        <v>4242</v>
+      </c>
+      <c r="E25" s="5">
+        <v>3777.9</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0.89059999999999995</v>
+      </c>
+      <c r="G25" s="5">
+        <v>12.257999999999999</v>
+      </c>
+      <c r="H25" s="5">
+        <v>7</v>
+      </c>
+      <c r="I25" s="5">
+        <v>4.2</v>
+      </c>
+      <c r="J25" s="7">
+        <v>2.69E-9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="D26" s="5">
+        <v>4242</v>
+      </c>
+      <c r="E26" s="5">
+        <v>4169.8999999999996</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="G26" s="5">
+        <v>12.59</v>
+      </c>
+      <c r="H26" s="5">
+        <v>6</v>
+      </c>
+      <c r="I26" s="5">
+        <v>4.7</v>
+      </c>
+      <c r="J26" s="7">
+        <v>1.0600000000000001E-8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="5">
+        <v>1</v>
+      </c>
+      <c r="D27" s="5">
+        <v>4242</v>
+      </c>
+      <c r="E27" s="5">
+        <v>4570.1000000000004</v>
+      </c>
+      <c r="F27" s="6">
+        <v>1.0772999999999999</v>
+      </c>
+      <c r="G27" s="5">
+        <v>12.923</v>
+      </c>
+      <c r="H27" s="5">
+        <v>6</v>
+      </c>
+      <c r="I27" s="5">
+        <v>3.7</v>
+      </c>
+      <c r="J27" s="7">
+        <v>4.9100000000000003E-13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A3:A27"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="B7:B16"/>
+    <mergeCell ref="E16:J16"/>
+    <mergeCell ref="B17:B27"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J28"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection sqref="A1:J28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>300</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>23526</v>
+      </c>
+      <c r="E3" s="5">
+        <v>481.65</v>
+      </c>
+      <c r="F3" s="6">
+        <v>2.0500000000000001E-2</v>
+      </c>
+      <c r="G3" s="5">
+        <v>11.11</v>
+      </c>
+      <c r="H3" s="5">
+        <v>5</v>
+      </c>
+      <c r="I3" s="5">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="J3" s="7">
+        <v>3.07E-12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="D4" s="5">
+        <v>23526</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="16"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13"/>
+      <c r="B5" s="8">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>23526</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1098.2</v>
+      </c>
+      <c r="F5" s="6">
+        <v>4.6699999999999998E-2</v>
+      </c>
+      <c r="G5" s="5">
+        <v>11.698</v>
+      </c>
+      <c r="H5" s="5">
+        <v>5</v>
+      </c>
+      <c r="I5" s="5">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="J5" s="7">
+        <v>4.8800000000000002E-12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="D6" s="5">
+        <v>23526</v>
+      </c>
+      <c r="E6" s="5">
+        <v>3553.9</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.15110000000000001</v>
+      </c>
+      <c r="G6" s="5">
+        <v>13.87</v>
+      </c>
+      <c r="H6" s="5">
+        <v>6</v>
+      </c>
+      <c r="I6" s="5">
+        <v>23.9</v>
+      </c>
+      <c r="J6" s="7">
+        <v>4.4099999999999998E-10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="D7" s="5">
+        <v>23526</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="16"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="13"/>
+      <c r="B8" s="8">
+        <v>5</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>23526</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1688.2</v>
+      </c>
+      <c r="F8" s="6">
+        <v>7.1800000000000003E-2</v>
+      </c>
+      <c r="G8" s="5">
+        <v>17.884</v>
+      </c>
+      <c r="H8" s="5">
+        <v>5</v>
+      </c>
+      <c r="I8" s="5">
+        <v>140.6</v>
+      </c>
+      <c r="J8" s="7">
+        <v>6.2699999999999997E-12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="D9" s="5">
+        <v>23526</v>
+      </c>
+      <c r="E9" s="5">
+        <v>3893.4</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.16550000000000001</v>
+      </c>
+      <c r="G9" s="5">
+        <v>17.093</v>
+      </c>
+      <c r="H9" s="5">
+        <v>5</v>
+      </c>
+      <c r="I9" s="5">
+        <v>237.2</v>
+      </c>
+      <c r="J9" s="7">
+        <v>8.1200000000000001E-12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="D10" s="5">
+        <v>23526</v>
+      </c>
+      <c r="E10" s="5">
+        <v>6188.5</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="G10" s="5">
+        <v>18.099</v>
+      </c>
+      <c r="H10" s="5">
+        <v>5</v>
+      </c>
+      <c r="I10" s="5">
+        <v>24</v>
+      </c>
+      <c r="J10" s="7">
+        <v>5.9699999999999998E-12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="D11" s="5">
+        <v>23526</v>
+      </c>
+      <c r="E11" s="5">
+        <v>8597.2999999999993</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0.3654</v>
+      </c>
+      <c r="G11" s="5">
+        <v>21.356000000000002</v>
+      </c>
+      <c r="H11" s="5">
+        <v>6</v>
+      </c>
+      <c r="I11" s="5">
+        <v>25.6</v>
+      </c>
+      <c r="J11" s="7">
+        <v>4.1000000000000001E-11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="D12" s="5">
+        <v>23526</v>
+      </c>
+      <c r="E12" s="5">
+        <v>11222</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="G12" s="5">
+        <v>33.134999999999998</v>
+      </c>
+      <c r="H12" s="5">
+        <v>7</v>
+      </c>
+      <c r="I12" s="5">
+        <v>30.3</v>
+      </c>
+      <c r="J12" s="7">
+        <v>6.5799999999999998E-12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D13" s="5">
+        <v>23526</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13"/>
+      <c r="B14" s="8">
+        <v>8</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5">
+        <v>23526</v>
+      </c>
+      <c r="E14" s="5">
+        <v>2867.3</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0.12189999999999999</v>
+      </c>
+      <c r="G14" s="5">
+        <v>30.331</v>
+      </c>
+      <c r="H14" s="5">
+        <v>5</v>
+      </c>
+      <c r="I14" s="5">
+        <v>21.7</v>
+      </c>
+      <c r="J14" s="7">
+        <v>8.82E-12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="D15" s="5">
+        <v>23526</v>
+      </c>
+      <c r="E15" s="5">
+        <v>4951.3</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0.21049999999999999</v>
+      </c>
+      <c r="G15" s="5">
+        <v>28.097999999999999</v>
+      </c>
+      <c r="H15" s="5">
+        <v>5</v>
+      </c>
+      <c r="I15" s="5">
+        <v>22.4</v>
+      </c>
+      <c r="J15" s="7">
+        <v>6.8699999999999996E-12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="D16" s="5">
+        <v>23526</v>
+      </c>
+      <c r="E16" s="5">
+        <v>7100.1</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0.30180000000000001</v>
+      </c>
+      <c r="G16" s="5">
+        <v>27.25</v>
+      </c>
+      <c r="H16" s="5">
+        <v>5</v>
+      </c>
+      <c r="I16" s="5">
+        <v>21</v>
+      </c>
+      <c r="J16" s="7">
+        <v>4.1999999999999999E-12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="D17" s="5">
+        <v>23526</v>
+      </c>
+      <c r="E17" s="5">
+        <v>9322.5</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0.39629999999999999</v>
+      </c>
+      <c r="G17" s="5">
+        <v>27.943000000000001</v>
+      </c>
+      <c r="H17" s="5">
+        <v>5</v>
+      </c>
+      <c r="I17" s="5">
+        <v>22.2</v>
+      </c>
+      <c r="J17" s="7">
+        <v>4.56E-12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="D18" s="5">
+        <v>23526</v>
+      </c>
+      <c r="E18" s="5">
+        <v>11640</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0.49480000000000002</v>
+      </c>
+      <c r="G18" s="5">
+        <v>30.542000000000002</v>
+      </c>
+      <c r="H18" s="5">
+        <v>6</v>
+      </c>
+      <c r="I18" s="5">
+        <v>28.3</v>
+      </c>
+      <c r="J18" s="7">
+        <v>6.8000000000000001E-12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D19" s="5">
+        <v>23526</v>
+      </c>
+      <c r="E19" s="5">
+        <v>14113</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0.59989999999999999</v>
+      </c>
+      <c r="G19" s="5">
+        <v>36.015999999999998</v>
+      </c>
+      <c r="H19" s="5">
+        <v>6</v>
+      </c>
+      <c r="I19" s="5">
+        <v>178.5</v>
+      </c>
+      <c r="J19" s="7">
+        <v>3.8799999999999996E-12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D20" s="5">
+        <v>23526</v>
+      </c>
+      <c r="E20" s="5">
+        <v>15484</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0.65820000000000001</v>
+      </c>
+      <c r="G20" s="5">
+        <v>40.972999999999999</v>
+      </c>
+      <c r="H20" s="5">
+        <v>7</v>
+      </c>
+      <c r="I20" s="5">
+        <v>33.1</v>
+      </c>
+      <c r="J20" s="7">
+        <v>4.3400000000000003E-9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="13"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D21" s="5">
+        <v>23526</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="13"/>
+      <c r="B22" s="3">
+        <v>10</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D22" s="5">
+        <v>23526</v>
+      </c>
+      <c r="E22" s="5">
+        <v>15534</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0.6603</v>
+      </c>
+      <c r="G22" s="5">
+        <v>41.198999999999998</v>
+      </c>
+      <c r="H22" s="5">
+        <v>7</v>
+      </c>
+      <c r="I22" s="5">
+        <v>30.6</v>
+      </c>
+      <c r="J22" s="7">
+        <v>3.2299999999999998E-9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="13"/>
+      <c r="B23" s="3">
+        <v>12</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D23" s="5">
+        <v>23526</v>
+      </c>
+      <c r="E23" s="5">
+        <v>15503</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="G23" s="5">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="H23" s="5">
+        <v>7</v>
+      </c>
+      <c r="I23" s="5">
+        <v>30.1</v>
+      </c>
+      <c r="J23" s="7">
+        <v>3.63E-11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="13"/>
+      <c r="B24" s="3">
+        <v>16</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D24" s="5">
+        <v>23526</v>
+      </c>
+      <c r="E24" s="5">
+        <v>15440</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0.65629999999999999</v>
+      </c>
+      <c r="G24" s="5">
+        <v>37.139000000000003</v>
+      </c>
+      <c r="H24" s="5">
+        <v>7</v>
+      </c>
+      <c r="I24" s="5">
+        <v>136</v>
+      </c>
+      <c r="J24" s="7">
+        <v>1.21E-10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="13"/>
+      <c r="B25" s="3">
+        <v>20</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D25" s="5">
+        <v>23526</v>
+      </c>
+      <c r="E25" s="5">
+        <v>15515</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0.65949999999999998</v>
+      </c>
+      <c r="G25" s="5">
+        <v>34.213000000000001</v>
+      </c>
+      <c r="H25" s="5">
+        <v>7</v>
+      </c>
+      <c r="I25" s="5">
+        <v>28.3</v>
+      </c>
+      <c r="J25" s="7">
+        <v>9.9400000000000001E-11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="13"/>
+      <c r="B26" s="3">
+        <v>25</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D26" s="5">
+        <v>23526</v>
+      </c>
+      <c r="E26" s="5">
+        <v>15914</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0.6764</v>
+      </c>
+      <c r="G26" s="5">
+        <v>37.731999999999999</v>
+      </c>
+      <c r="H26" s="5">
+        <v>7</v>
+      </c>
+      <c r="I26" s="5">
+        <v>27.3</v>
+      </c>
+      <c r="J26" s="7">
+        <v>8.3600000000000001E-10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="13"/>
+      <c r="B27" s="8">
+        <v>30</v>
+      </c>
+      <c r="C27" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D27" s="5">
+        <v>23526</v>
+      </c>
+      <c r="E27" s="5">
+        <v>16667</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0.70850000000000002</v>
+      </c>
+      <c r="G27" s="5">
+        <v>46.595999999999997</v>
+      </c>
+      <c r="H27" s="5">
+        <v>7</v>
+      </c>
+      <c r="I27" s="5">
+        <v>312.60000000000002</v>
+      </c>
+      <c r="J27" s="7">
+        <v>7.7400000000000002E-10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D28" s="5">
+        <v>23526</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="A3:A28"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="B14:B21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>1354</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>73060</v>
+      </c>
+      <c r="E3" s="5">
+        <v>36.988999999999997</v>
+      </c>
+      <c r="F3" s="6">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="G3" s="5">
+        <v>3.5756000000000001</v>
+      </c>
+      <c r="H3" s="5">
+        <v>4</v>
+      </c>
+      <c r="I3" s="5">
+        <v>27</v>
+      </c>
+      <c r="J3" s="7">
+        <v>4.5700000000000001E-12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="D4" s="5">
+        <v>73060</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="16"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13"/>
+      <c r="B5" s="8">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>73060</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1401.7</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1.9199999999999998E-2</v>
+      </c>
+      <c r="G5" s="5">
+        <v>15.161</v>
+      </c>
+      <c r="H5" s="5">
+        <v>5</v>
+      </c>
+      <c r="I5" s="5">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="J5" s="7">
+        <v>7.7100000000000001E-12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="D6" s="5">
+        <v>73060</v>
+      </c>
+      <c r="E6" s="5">
+        <v>9212.7000000000007</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.12609999999999999</v>
+      </c>
+      <c r="G6" s="5">
+        <v>31.225999999999999</v>
+      </c>
+      <c r="H6" s="5">
+        <v>6</v>
+      </c>
+      <c r="I6" s="5">
+        <v>47.7</v>
+      </c>
+      <c r="J6" s="7">
+        <v>5.9099999999999997E-12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="D7" s="5">
+        <v>73060</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="16"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="13"/>
+      <c r="B8" s="8">
+        <v>10</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>73060</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1604</v>
+      </c>
+      <c r="F8" s="6">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="G8" s="5">
+        <v>17.114999999999998</v>
+      </c>
+      <c r="H8" s="5">
+        <v>5</v>
+      </c>
+      <c r="I8" s="5">
+        <v>32.4</v>
+      </c>
+      <c r="J8" s="7">
+        <v>3.55E-12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="D9" s="5">
+        <v>73060</v>
+      </c>
+      <c r="E9" s="5">
+        <v>9073.5</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.1242</v>
+      </c>
+      <c r="G9" s="5">
+        <v>23.254999999999999</v>
+      </c>
+      <c r="H9" s="5">
+        <v>5</v>
+      </c>
+      <c r="I9" s="5">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="J9" s="7">
+        <v>4.5999999999999998E-12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="D10" s="5">
+        <v>73060</v>
+      </c>
+      <c r="E10" s="5">
+        <v>17058</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.23350000000000001</v>
+      </c>
+      <c r="G10" s="5">
+        <v>41.945</v>
+      </c>
+      <c r="H10" s="5">
+        <v>5</v>
+      </c>
+      <c r="I10" s="5">
+        <v>41.2</v>
+      </c>
+      <c r="J10" s="7">
+        <v>6.5299999999999998E-12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="D11" s="5">
+        <v>73060</v>
+      </c>
+      <c r="E11" s="5">
+        <v>25834</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0.35360000000000003</v>
+      </c>
+      <c r="G11" s="5">
+        <v>83.772999999999996</v>
+      </c>
+      <c r="H11" s="5">
+        <v>6</v>
+      </c>
+      <c r="I11" s="5">
+        <v>270.89999999999998</v>
+      </c>
+      <c r="J11" s="7">
+        <v>1.5700000000000001E-11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="D12" s="5">
+        <v>73060</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13"/>
+      <c r="B13" s="8">
+        <v>15</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5">
+        <v>73060</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1584.9</v>
+      </c>
+      <c r="F13" s="6">
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="G13" s="5">
+        <v>16.404</v>
+      </c>
+      <c r="H13" s="5">
+        <v>5</v>
+      </c>
+      <c r="I13" s="5">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="J13" s="7">
+        <v>6.0500000000000003E-12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="D14" s="5">
+        <v>73060</v>
+      </c>
+      <c r="E14" s="5">
+        <v>8915.5</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0.122</v>
+      </c>
+      <c r="G14" s="5">
+        <v>18.495999999999999</v>
+      </c>
+      <c r="H14" s="5">
+        <v>5</v>
+      </c>
+      <c r="I14" s="5">
+        <v>37.4</v>
+      </c>
+      <c r="J14" s="7">
+        <v>5.4900000000000002E-12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="D15" s="5">
+        <v>73060</v>
+      </c>
+      <c r="E15" s="5">
+        <v>16546</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0.22650000000000001</v>
+      </c>
+      <c r="G15" s="5">
+        <v>26.859000000000002</v>
+      </c>
+      <c r="H15" s="5">
+        <v>5</v>
+      </c>
+      <c r="I15" s="5">
+        <v>44.1</v>
+      </c>
+      <c r="J15" s="7">
+        <v>1.31E-11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="D16" s="5">
+        <v>73060</v>
+      </c>
+      <c r="E16" s="5">
+        <v>24514</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0.33550000000000002</v>
+      </c>
+      <c r="G16" s="5">
+        <v>43.012999999999998</v>
+      </c>
+      <c r="H16" s="5">
+        <v>5</v>
+      </c>
+      <c r="I16" s="5">
+        <v>45.2</v>
+      </c>
+      <c r="J16" s="7">
+        <v>3.8700000000000003E-12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="D17" s="5">
+        <v>73060</v>
+      </c>
+      <c r="E17" s="5">
+        <v>32892</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0.45019999999999999</v>
+      </c>
+      <c r="G17" s="5">
+        <v>70.057000000000002</v>
+      </c>
+      <c r="H17" s="5">
+        <v>6</v>
+      </c>
+      <c r="I17" s="5">
+        <v>53.3</v>
+      </c>
+      <c r="J17" s="7">
+        <v>4.97E-12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="5">
+        <v>73060</v>
+      </c>
+      <c r="E18" s="5">
+        <v>41844</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0.57269999999999999</v>
+      </c>
+      <c r="G18" s="5">
+        <v>115.22</v>
+      </c>
+      <c r="H18" s="5">
+        <v>6</v>
+      </c>
+      <c r="I18" s="5">
+        <v>306.10000000000002</v>
+      </c>
+      <c r="J18" s="7">
+        <v>1.11E-8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D19" s="5">
+        <v>73060</v>
+      </c>
+      <c r="E19" s="5">
+        <v>51997</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0.7117</v>
+      </c>
+      <c r="G19" s="5">
+        <v>207.97</v>
+      </c>
+      <c r="H19" s="5">
+        <v>7</v>
+      </c>
+      <c r="I19" s="5">
+        <v>207.7</v>
+      </c>
+      <c r="J19" s="7">
+        <v>2.9500000000000002E-11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="13"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D20" s="5">
+        <v>73060</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="13"/>
+      <c r="B21" s="3">
+        <v>20</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D21" s="5">
+        <v>73060</v>
+      </c>
+      <c r="E21" s="5">
+        <v>50826</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0.69569999999999999</v>
+      </c>
+      <c r="G21" s="5">
+        <v>147.56</v>
+      </c>
+      <c r="H21" s="5">
+        <v>6</v>
+      </c>
+      <c r="I21" s="5">
+        <v>57.8</v>
+      </c>
+      <c r="J21" s="7">
+        <v>6.4699999999999997E-12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="13"/>
+      <c r="B22" s="8">
+        <v>30</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5">
+        <v>73060</v>
+      </c>
+      <c r="E22" s="5">
+        <v>3414.7</v>
+      </c>
+      <c r="F22" s="6">
+        <v>4.6699999999999998E-2</v>
+      </c>
+      <c r="G22" s="5">
+        <v>35.085000000000001</v>
+      </c>
+      <c r="H22" s="5">
+        <v>5</v>
+      </c>
+      <c r="I22" s="5">
+        <v>161.5</v>
+      </c>
+      <c r="J22" s="7">
+        <v>3.7800000000000001E-11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="D23" s="5">
+        <v>73060</v>
+      </c>
+      <c r="E23" s="5">
+        <v>10620</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0.1454</v>
+      </c>
+      <c r="G23" s="5">
+        <v>34.968000000000004</v>
+      </c>
+      <c r="H23" s="5">
+        <v>5</v>
+      </c>
+      <c r="I23" s="5">
+        <v>37.1</v>
+      </c>
+      <c r="J23" s="7">
+        <v>6.7100000000000006E-11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="D24" s="5">
+        <v>73060</v>
+      </c>
+      <c r="E24" s="5">
+        <v>18019</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0.24660000000000001</v>
+      </c>
+      <c r="G24" s="5">
+        <v>38.625999999999998</v>
+      </c>
+      <c r="H24" s="5">
+        <v>5</v>
+      </c>
+      <c r="I24" s="5">
+        <v>164.2</v>
+      </c>
+      <c r="J24" s="7">
+        <v>1.19E-10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="D25" s="5">
+        <v>73060</v>
+      </c>
+      <c r="E25" s="5">
+        <v>25624</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0.35070000000000001</v>
+      </c>
+      <c r="G25" s="5">
+        <v>46.514000000000003</v>
+      </c>
+      <c r="H25" s="5">
+        <v>5</v>
+      </c>
+      <c r="I25" s="5">
+        <v>270.3</v>
+      </c>
+      <c r="J25" s="7">
+        <v>2.11E-10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="D26" s="5">
+        <v>73060</v>
+      </c>
+      <c r="E26" s="5">
+        <v>33457</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0.45789999999999997</v>
+      </c>
+      <c r="G26" s="5">
+        <v>59.415999999999997</v>
+      </c>
+      <c r="H26" s="5">
+        <v>6</v>
+      </c>
+      <c r="I26" s="5">
+        <v>157.80000000000001</v>
+      </c>
+      <c r="J26" s="7">
+        <v>3.74E-10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D27" s="5">
+        <v>73060</v>
+      </c>
+      <c r="E27" s="5">
+        <v>41550</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0.56869999999999998</v>
+      </c>
+      <c r="G27" s="5">
+        <v>78.635000000000005</v>
+      </c>
+      <c r="H27" s="5">
+        <v>6</v>
+      </c>
+      <c r="I27" s="5">
+        <v>84.2</v>
+      </c>
+      <c r="J27" s="7">
+        <v>6.6899999999999996E-10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D28" s="5">
+        <v>73060</v>
+      </c>
+      <c r="E28" s="5">
+        <v>49956</v>
+      </c>
+      <c r="F28" s="6">
+        <v>0.68379999999999996</v>
+      </c>
+      <c r="G28" s="5">
+        <v>106.41</v>
+      </c>
+      <c r="H28" s="5">
+        <v>6</v>
+      </c>
+      <c r="I28" s="5">
+        <v>183.3</v>
+      </c>
+      <c r="J28" s="7">
+        <v>1.2199999999999999E-9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D29" s="5">
+        <v>73060</v>
+      </c>
+      <c r="E29" s="5">
+        <v>58762</v>
+      </c>
+      <c r="F29" s="6">
+        <v>0.80430000000000001</v>
+      </c>
+      <c r="G29" s="5">
+        <v>147</v>
+      </c>
+      <c r="H29" s="5">
+        <v>6</v>
+      </c>
+      <c r="I29" s="5">
+        <v>416</v>
+      </c>
+      <c r="J29" s="7">
+        <v>9.6600000000000001E-9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="D30" s="5">
+        <v>73060</v>
+      </c>
+      <c r="E30" s="5">
+        <v>68152</v>
+      </c>
+      <c r="F30" s="6">
+        <v>0.93279999999999996</v>
+      </c>
+      <c r="G30" s="5">
+        <v>210.35</v>
+      </c>
+      <c r="H30" s="5">
+        <v>7</v>
+      </c>
+      <c r="I30" s="5">
+        <v>381.3</v>
+      </c>
+      <c r="J30" s="7">
+        <v>6.34E-12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="D31" s="5">
+        <v>73060</v>
+      </c>
+      <c r="E31" s="5">
+        <v>73201</v>
+      </c>
+      <c r="F31" s="6">
+        <v>1.0019</v>
+      </c>
+      <c r="G31" s="5">
+        <v>259.55</v>
+      </c>
+      <c r="H31" s="5">
+        <v>7</v>
+      </c>
+      <c r="I31" s="5">
+        <v>137</v>
+      </c>
+      <c r="J31" s="7">
+        <v>3.1400000000000003E-11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="D32" s="5">
+        <v>73060</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="A3:A32"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="B13:B20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="B22:B32"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23"/>
+      <c r="B2" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="19">
+        <v>4662</v>
+      </c>
+      <c r="B3" s="19">
+        <v>0</v>
+      </c>
+      <c r="C3" s="19">
+        <v>193170</v>
+      </c>
+      <c r="D3" s="19">
+        <v>18042</v>
+      </c>
+      <c r="E3" s="20">
+        <v>9.3399999999999997E-2</v>
+      </c>
+      <c r="F3" s="19">
+        <v>278.18</v>
+      </c>
+      <c r="G3" s="19">
+        <v>7</v>
+      </c>
+      <c r="H3" s="19">
+        <v>344.7</v>
+      </c>
+      <c r="I3" s="21">
+        <v>6.0699999999999998E-12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="19">
+        <v>4662</v>
+      </c>
+      <c r="B4" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="C4" s="19">
+        <v>193170</v>
+      </c>
+      <c r="D4" s="19">
+        <v>34870</v>
+      </c>
+      <c r="E4" s="20">
+        <v>0.18049999999999999</v>
+      </c>
+      <c r="F4" s="19">
+        <v>263.86</v>
+      </c>
+      <c r="G4" s="19">
+        <v>7</v>
+      </c>
+      <c r="H4" s="19">
+        <v>279.5</v>
+      </c>
+      <c r="I4" s="21">
+        <v>4.6300000000000003E-12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="19">
+        <v>4662</v>
+      </c>
+      <c r="B5" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C5" s="19">
+        <v>193170</v>
+      </c>
+      <c r="D5" s="19">
+        <v>52176</v>
+      </c>
+      <c r="E5" s="20">
+        <v>0.27010000000000001</v>
+      </c>
+      <c r="F5" s="19">
+        <v>264.77999999999997</v>
+      </c>
+      <c r="G5" s="19">
+        <v>7</v>
+      </c>
+      <c r="H5" s="19">
+        <v>369.3</v>
+      </c>
+      <c r="I5" s="21">
+        <v>4.87E-12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="19">
+        <v>4662</v>
+      </c>
+      <c r="B6" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="C6" s="19">
+        <v>193170</v>
+      </c>
+      <c r="D6" s="19">
+        <v>70010</v>
+      </c>
+      <c r="E6" s="20">
+        <v>0.3624</v>
+      </c>
+      <c r="F6" s="19">
+        <v>283.49</v>
+      </c>
+      <c r="G6" s="19">
+        <v>7</v>
+      </c>
+      <c r="H6" s="19">
+        <v>432.7</v>
+      </c>
+      <c r="I6" s="21">
+        <v>6.5199999999999997E-12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="19">
+        <v>4662</v>
+      </c>
+      <c r="B7" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="C7" s="19">
+        <v>193170</v>
+      </c>
+      <c r="D7" s="19">
+        <v>88463</v>
+      </c>
+      <c r="E7" s="20">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="F7" s="19">
+        <v>326.79000000000002</v>
+      </c>
+      <c r="G7" s="19">
+        <v>7</v>
+      </c>
+      <c r="H7" s="19">
+        <v>328.7</v>
+      </c>
+      <c r="I7" s="21">
+        <v>4.6200000000000001E-12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="19">
+        <v>4662</v>
+      </c>
+      <c r="B8" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="19">
+        <v>193170</v>
+      </c>
+      <c r="D8" s="19">
+        <v>107720</v>
+      </c>
+      <c r="E8" s="20">
+        <v>0.55759999999999998</v>
+      </c>
+      <c r="F8" s="19">
+        <v>413.96</v>
+      </c>
+      <c r="G8" s="19">
+        <v>33</v>
+      </c>
+      <c r="H8" s="19">
+        <v>1023.2</v>
+      </c>
+      <c r="I8" s="21">
+        <v>1.43E-11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="19">
+        <v>4662</v>
+      </c>
+      <c r="B9" s="19">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C9" s="19">
+        <v>193170</v>
+      </c>
+      <c r="D9" s="19">
+        <v>117820</v>
+      </c>
+      <c r="E9" s="20">
+        <v>0.6099</v>
+      </c>
+      <c r="F9" s="19">
+        <v>495.8</v>
+      </c>
+      <c r="G9" s="19">
+        <v>27</v>
+      </c>
+      <c r="H9" s="19">
+        <v>1006.5</v>
+      </c>
+      <c r="I9" s="21">
+        <v>2.76E-9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="19">
+        <v>4662</v>
+      </c>
+      <c r="B10" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="C10" s="19">
+        <v>193170</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>